--- a/biology/Botanique/Science_des_sols/Science_des_sols.xlsx
+++ b/biology/Botanique/Science_des_sols/Science_des_sols.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La science des sols, (soil science en anglais), est l'ensemble des disciplines scientifiques concernant les sols de la surface terrestre.
 Les deux branches principales de la science des sols sont :
 la pédologie, qui étudie la formation (pédogenèse) et l'évolution des sols ;
 l'édaphologie, qui étudie l'influence des sols sur les êtres vivants, particulièrement en tant qu'habitats naturels pour les végétaux (l'agrologie portant plus spécifiquement sur l'étude des seuls sols agricoles).
-Le congrès mondial des sciences du sol est un congrès quadriannuel créé au début du XXe siècle qui porte sur la science des sols[1]. Plus de 3 000 participants étaient attendus en août 2022 à Glasgow[2].
+Le congrès mondial des sciences du sol est un congrès quadriannuel créé au début du XXe siècle qui porte sur la science des sols. Plus de 3 000 participants étaient attendus en août 2022 à Glasgow.
 </t>
         </is>
       </c>
